--- a/src/main/TrainControllerSW/track_layout.xlsx
+++ b/src/main/TrainControllerSW/track_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\japro\OneDrive\Documents2\Pitt\Systems &amp; Project Engineering\2021 Summer Term\Lectures\Lecture 2 - Project\Project Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13477\Desktop\Github repos\ECE-1140\src\main\TrainControllerSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28548DF3-BD3E-4F62-BE50-9FA9D7A0FF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E44E88-C4F3-4E81-BFB0-215AC33B2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -152,15 +152,6 @@
     <t>CUMALTIVE ELEVATION (M)</t>
   </si>
   <si>
-    <t>STATION: SHADYSIDE</t>
-  </si>
-  <si>
-    <t>STATION: HERRON AVE</t>
-  </si>
-  <si>
-    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
-  </si>
-  <si>
     <t>STATION; STATION SQUARE</t>
   </si>
   <si>
@@ -200,19 +191,10 @@
     <t>STATION; SOUTH BANK</t>
   </si>
   <si>
-    <t>STATION; GLENBURY</t>
-  </si>
-  <si>
     <t>STATION; DORMONT</t>
   </si>
   <si>
     <t>STATION; POPLAR</t>
-  </si>
-  <si>
-    <t>STATION;   CASTLE SHANNON</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL; UNDERDROUND</t>
   </si>
   <si>
     <t>STATION; INGLEWOOD; UNDERGROUND</t>
@@ -313,6 +295,24 @@
   <si>
     <t>Right</t>
   </si>
+  <si>
+    <t>STATION; HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION; STEEL PLAZA; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t>STATION; GLENBURY (First)</t>
+  </si>
+  <si>
+    <t>STATION; SHADYSIDE (First)</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL; UNDERGROUND</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,9 +438,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -566,8 +563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37440" y="4166952"/>
-          <a:ext cx="7275415" cy="2600008"/>
+          <a:off x="37440" y="4080910"/>
+          <a:ext cx="6907750" cy="2580640"/>
           <a:chOff x="37440" y="4060590"/>
           <a:chExt cx="6967440" cy="2598420"/>
         </a:xfrm>
@@ -1219,16 +1216,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1621 3257,'296'0,"-282"1,-1 0,26 6,-24-4,-1 0,20 0,441-1,-232-4,-40 2,-188 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3334 3275,'1383'0,"-1368"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">5231 3257,'1253'0,"-1237"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6980 3239,'1193'0,"-1179"1,-2 0,27 6,14 2,-38-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3239,'589'0,"-572"1,-1 0,25 6,-23-3,-1-2,22 2,13-5,-25 0,-1 1,1 1,-1 2,27 5,-25-4,2 0,-1-2,0-1,38-3,1 0,5 2,-57 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8878 3081,'6'-1,"0"0,0 0,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,1-1,4-5,-4 4,2 0,-2 1,1 0,0 0,1 1,6-4,23-5,-2-1,64-33,-17 6,42-8,80-33,-184 74,39-10,-39 13,0-2,26-10,-20 5,0 1,1 1,47-10,-58 15,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">10186 2569,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,3-1,31-16,-31 15,49-19,56-17,-91 32,110-43,-82 30,1 3,53-14,-54 19,-1-2,-1-2,54-27,-85 37,1 1,0 1,26-5,26-8,153-79,-77 31,-129 60</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11751 1951,'1'-1,"-1"-1,0 1,0 0,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,2-1,23-14,-11 8,28-18,73-33,-67 37,56-38,-73 41,2 2,50-20,-47 22,-2-1,36-22,-42 22,51-21,10-5,-35 8,-45 29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12967 1298,'12'-1,"1"-1,-1 0,1-1,-1 0,0-1,0 0,-1-1,14-7,-7 3,0 2,28-8,-14 4,0 0,0-2,48-27,38-16,-56 29,72-43,4-3,-125 66,-2 0,1 0,14-12,0 0,-21 15,1 1,1 0,-1 0,0 1,0 0,14-3,-14 4,1-1,0 1,-1-2,1 1,-1-1,0 1,10-7,28-20,-34 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">14367 627,'4'-1,"-1"0,1 0,-1 0,0 0,-1-1,1 1,0-1,0 0,-1 1,2-1,-2-1,0 1,4-4,4-3,6-2,0 1,1 0,-1 1,31-11,-28 13,0-2,0 0,29-20,-26 15,1 0,48-21,-14 7,63-44,28-4,-93 50,-39 19,-1 0,1-1,-2 0,1-1,-2-1,21-17,-26 21,1-1,0 1,-1 1,2-1,-1 1,17-5,22-13,-37 16,4-1,-1-1,1 0,19-19,-26 21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1539 3233,'281'0,"-268"1,0 0,24 6,-23-4,-1 0,20 0,418-1,-221-4,-37 2,-179 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3166 3251,'1313'0,"-1299"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">4967 3233,'1189'0,"-1173"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6627 3215,'1133'0,"-1120"1,-1 0,25 6,13 2,-36-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3215,'559'0,"-543"1,0 0,22 6,-20-3,-2-2,21 2,12-5,-23 0,-2 1,2 1,-1 2,25 5,-23-4,1 0,0-2,-1-1,37-3,0 0,6 2,-55 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8429 3058,'6'-1,"0"0,-1 0,0-1,1 0,-1 0,-1 0,2-1,-1 1,0-1,-1 0,2-1,4-5,-5 4,3 0,-3 1,2 0,0 0,0 2,7-5,21-5,-2-1,61-33,-16 6,40-7,75-34,-174 74,37-9,-37 12,0-2,25-10,-19 5,-1 1,2 1,44-10,-55 15,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">9671 2550,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,3-1,29-16,-29 15,47-19,52-16,-86 31,105-43,-79 30,2 3,50-13,-51 18,-2-2,0-2,51-27,-81 37,2 1,-1 1,25-5,25-7,145-80,-74 32,-121 59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11157 1936,'1'-1,"-1"-1,0 2,0-1,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,1-1,23-14,-11 8,27-18,69-33,-63 38,53-39,-70 41,2 2,48-19,-45 21,-2-1,35-22,-41 22,49-20,10-6,-34 8,-43 29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12312 1288,'11'-1,"1"-1,0 0,0-1,0 0,-1-1,0 0,0 0,13-8,-7 3,0 2,26-8,-12 4,-1 0,1-2,45-27,36-15,-54 28,70-42,3-4,-119 66,-2 0,2 0,13-12,-1 1,-19 14,1 1,0 0,0 0,0 1,-1 0,14-3,-13 4,1-1,-1 1,0-2,1 1,-2-1,1 1,9-7,27-20,-32 24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">13641 622,'4'-1,"-1"0,0 0,0 0,0 0,-1-1,1 1,0-1,0 0,-2 1,3-1,-2-1,0 1,4-3,3-4,6-2,1 1,0 0,-1 1,30-11,-27 13,0-2,0 0,27-20,-24 16,1-1,45-21,-12 7,58-43,28-5,-89 50,-37 19,0 1,0-2,-2 0,1-1,-1-1,19-17,-24 21,0-1,1 1,-2 1,3-1,-2 1,17-5,21-13,-36 17,4-2,0-1,0 0,18-19,-24 21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1255,11 +1252,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"0"0,0 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,6 7,2-2,325 217,-236-169,22 13,-89-47,81 48,-12-9,-49-29,73 34,-94-50,37 24,18 9,-28-26,-41-16,1 1,30 17,-27-9,-13-9,0-1,1 0,-1 0,1-1,0-1,13 5,-21-9,-1 1,0 0,0-1,0 1,1 0,-1 1,0-1,0 0,2 2,4 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1879 1007,'10'1,"-1"1,1 1,-1-1,1 1,-1 1,-1 0,2 0,-2 1,10 5,11 6,233 98,-228-101,1 2,475 171,-493-181,64 17,95 40,-140-39,-31-19,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3684 1713,'10'1,"1"0,-1 1,0 0,0 0,14 6,13 3,109 24,158 41,330 73,-522-120,29 5,-118-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5691 2207,'7'1,"1"0,-2 0,1 1,-1-1,1 2,0-1,-1 1,7 3,14 6,36 7,0-3,78 11,-72-15,32 6,7 1,160 47,-7 3,-244-66,6 3,-1 1,0 1,24 13,-20-9,12 2,0-1,60 11,9 3,-90-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7680 2754,'46'-1,"-1"3,1 1,-1 2,52 13,406 88,-188-38,-241-46,0 3,78 38,-12 3,-117-55,1-1,0-1,49 10,9 4,-69-19,0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"-1"0,1 1,0 0,-1 0,1 0,-2 0,2 1,-1-1,0 1,5 7,3-2,308 215,-225-167,22 12,-85-46,78 47,-13-8,-45-29,68 33,-88-49,34 24,18 8,-27-25,-39-16,1 1,28 17,-25-9,-13-9,1-1,0 0,0 0,0-1,1-1,12 5,-21-9,0 1,0 0,0-1,0 1,1 0,-1 1,0-2,0 1,1 2,5 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1784 1000,'10'0,"-2"2,2 1,-2-1,2 1,-2 1,0 0,1 0,-1 1,9 5,10 6,222 97,-216-100,0 2,451 170,-468-180,61 16,90 41,-133-39,-29-19,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3498 1700,'9'1,"2"0,-2 1,1 0,-1 0,14 6,12 3,104 24,149 40,314 73,-495-119,27 5,-113-30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5403 2191,'7'1,"1"0,-3 0,2 1,-1-1,0 1,1 0,-1 1,6 3,14 6,33 7,1-3,74 11,-68-15,30 6,6 1,153 46,-8 3,-230-65,4 3,0 1,0 1,23 13,-20-9,13 2,-1-1,57 11,8 2,-85-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7292 2733,'44'-1,"-2"3,2 1,-1 2,49 13,385 88,-178-39,-228-45,-1 3,74 37,-11 4,-111-55,1-1,0-2,46 11,9 4,-66-19,0-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1286,14 +1283,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1585 1061,'2'-128,"-4"-140,0 257,0 0,-1-1,0 1,0 0,-2 1,0-1,1 1,-10-12,-15-40,21 45,-2 0,1 1,-1-1,-2 2,0 0,-22-22,4 4,13 15,0 0,-1 2,-40-28,-68-33,115 71,-28-15,-3 2,0 1,-1 3,0 1,-1 2,-91-14,90 19,12 1,-2 1,2 2,-61 1,84 5,1-1,0 1,-1 1,1 0,0 0,1 0,0 1,-1 0,-13 13,11-8,1 0,-1 1,2 1,-13 18,-10 12,23-30,0 0,0 1,2 1,0-1,0 1,-7 23,-19 92,19-60,-24 125,35-155,3 48,1-54,-2 0,-6 51,-7-23,-37 98,-5 46,48-175,-3 30,2-1,2 1,3 63,5-94,2 0,1 0,2 0,11 39,48 110,-50-141,40 83,-32-73,27 75,-38-91,0-2,3 2,0-2,37 46,-1 5,-42-67,1 0,0 0,0-1,2-1,-1 1,2-2,-1 1,22 11,8 2,69 31,-102-52,0 0,-1 0,2-1,-2 0,2-1,16 1,-1-2,31-3,-49 2,0 0,-1-1,0 0,1 0,-1 0,-1-1,1 0,0 0,0 0,8-8,6-5,25-27,-20 19,10-12,45-60,20-23,-82 99,-1-1,-2-2,24-41,-9 14,-21 36,-2 0,0 0,0 0,-2-1,0 0,-1 0,-1 0,0-1,2-27,2-15,2-14,-7 43,3 0,1 0,0 0,21-51,-16 52,-2 0,0-1,-3 0,5-47,-1 15,-7 45,3-32,-5 32,2-1,0 0,2 0,0 1,7-19,-2 10,5-26,-9 30,13-35,-12 43,-2 0,0-1,-2 0,1 0,-1 0,1-20,-5-178,1 197</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1505 1053,'2'-127,"-4"-139,0 255,0 0,-1-1,0 1,1 0,-3 2,0-2,1 1,-9-12,-15-40,21 45,-3 1,2 0,-2-1,-1 2,0 0,-22-22,5 5,12 14,-1 0,0 2,-38-28,-64-32,108 70,-26-15,-3 2,0 1,0 3,-1 2,-1 1,-86-14,85 19,12 1,-2 1,1 2,-57 1,79 5,2-1,-1 1,0 1,0 0,1 0,0 0,1 1,-2 0,-12 13,11-8,0-1,0 2,1 1,-12 18,-9 12,21-30,1 0,-1 0,3 2,-1-1,0 1,-6 23,-18 91,17-60,-22 125,34-154,2 47,1-53,-2 0,-6 50,-6-23,-36 98,-4 46,45-174,-2 29,1 0,3 0,2 63,5-93,2 0,1 0,1-1,11 40,46 109,-48-141,39 83,-32-72,27 74,-37-90,1-2,2 1,0-1,36 46,-2 4,-39-66,0 0,1 0,-1-1,2-1,0 1,1-3,0 2,20 11,8 2,65 31,-96-52,-1 0,0 0,1-1,-1 0,1-1,16 1,-1-2,29-3,-46 2,-1 0,0-1,0 0,0 0,0 0,-1-1,0 0,1 0,0 0,7-8,6-5,24-27,-19 19,9-11,43-61,19-22,-78 98,-1 0,-2-3,23-41,-8 15,-21 35,-1 0,0 0,-1 0,-1-1,0 0,-1 0,-2 0,1 0,2-28,2-15,1-13,-6 42,3 0,0 1,1-1,20-51,-16 53,-1-1,-1-1,-2 0,5-46,-2 14,-6 45,3-31,-6 31,3-1,0 0,2 0,0 1,6-18,-1 9,4-26,-8 30,12-34,-12 42,-1 0,0-1,-2 0,0 0,0 0,1-19,-5-178,1 196</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1331,9 +1328,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,26 +1363,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,26 +1398,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1615,33 +1578,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.73046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="31.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1659,14 +1622,14 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.46484375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -1696,9 +1659,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1726,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -1757,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="1">A3</f>
         <v>Blue</v>
@@ -1788,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1819,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1840,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="12">
@@ -1852,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1873,7 +1836,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="12">
@@ -1885,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1916,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1947,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1978,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1999,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="12">
@@ -2011,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2032,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="12">
@@ -2044,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2075,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2106,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2137,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2158,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="12">
@@ -2170,29 +2133,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I21" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B25" s="17">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
         <v>1</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>2</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>4</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="17" t="s">
-        <v>87</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2205,27 +2168,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="43" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.9296875" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2242,13 +2205,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>36</v>
@@ -2258,7 +2221,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2287,7 +2250,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -2317,7 +2280,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -2347,7 +2310,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2376,7 +2339,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2405,7 +2368,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2434,7 +2397,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2455,10 +2418,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
@@ -2469,7 +2432,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2498,7 +2461,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2519,7 +2482,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
@@ -2530,7 +2493,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2559,7 +2522,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2573,7 +2536,7 @@
       <c r="D12" s="3">
         <v>75</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>-0.5</v>
       </c>
       <c r="F12" s="3">
@@ -2588,7 +2551,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2599,10 +2562,10 @@
       <c r="C13" s="5">
         <v>12</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>75</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="3">
         <v>-1</v>
       </c>
       <c r="F13" s="3">
@@ -2617,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2628,10 +2591,10 @@
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>70</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="3">
         <v>-2</v>
       </c>
       <c r="F14" s="3">
@@ -2646,7 +2609,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2657,10 +2620,10 @@
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="3">
         <v>-1.25</v>
       </c>
       <c r="F15" s="3">
@@ -2675,7 +2638,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2696,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" si="0"/>
@@ -2707,7 +2670,7 @@
         <v>0.25000000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2728,10 +2691,10 @@
         <v>40</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="0"/>
@@ -2742,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2771,7 +2734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2801,7 +2764,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2830,7 +2793,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2859,7 +2822,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2880,10 +2843,10 @@
         <v>55</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="0"/>
@@ -2894,7 +2857,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2923,7 +2886,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2952,7 +2915,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2984,7 +2947,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3005,10 +2968,10 @@
         <v>70</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="0"/>
@@ -3019,7 +2982,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3051,7 +3014,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3072,7 +3035,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
@@ -3083,7 +3046,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3115,7 +3078,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3147,7 +3110,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3179,7 +3142,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3211,7 +3174,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3232,7 +3195,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="0"/>
@@ -3243,7 +3206,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3275,7 +3238,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3307,7 +3270,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3328,10 +3291,10 @@
         <v>70</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I36" s="12">
         <f t="shared" si="0"/>
@@ -3342,7 +3305,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3374,7 +3337,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Red</v>
@@ -3406,7 +3369,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3427,7 +3390,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="0"/>
@@ -3438,7 +3401,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3470,7 +3433,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3502,7 +3465,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3534,7 +3497,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3566,7 +3529,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3587,7 +3550,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="0"/>
@@ -3598,7 +3561,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3630,7 +3593,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3651,10 +3614,10 @@
         <v>70</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="0"/>
@@ -3665,7 +3628,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3697,7 +3660,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3718,7 +3681,7 @@
         <v>70</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I48" s="12">
         <f t="shared" si="0"/>
@@ -3729,7 +3692,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3750,10 +3713,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I49" s="12">
         <f t="shared" si="0"/>
@@ -3764,7 +3727,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3793,7 +3756,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3822,7 +3785,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3851,7 +3814,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3872,7 +3835,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="0"/>
@@ -3883,7 +3846,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3912,7 +3875,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3941,7 +3904,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3970,7 +3933,7 @@
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3999,7 +3962,7 @@
         <v>-0.4910000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4028,7 +3991,7 @@
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4057,7 +4020,7 @@
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4086,7 +4049,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4107,10 +4070,10 @@
         <v>55</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I61" s="12">
         <f t="shared" si="0"/>
@@ -4121,7 +4084,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4150,7 +4113,7 @@
         <v>0.6339999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4179,7 +4142,7 @@
         <v>-0.1160000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4208,7 +4171,7 @@
         <v>-0.8660000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4237,7 +4200,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4266,7 +4229,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4295,7 +4258,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4327,7 +4290,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4359,7 +4322,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -4391,7 +4354,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Red</v>
@@ -4423,7 +4386,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4455,7 +4418,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4487,7 +4450,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4519,7 +4482,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4551,7 +4514,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4583,7 +4546,7 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Red</v>
@@ -4615,538 +4578,538 @@
         <v>-1.2410000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A154" si="6">A134</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
@@ -5164,26 +5127,26 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="12.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.53125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" style="3"/>
-    <col min="9" max="12" width="8.796875" style="1"/>
-    <col min="13" max="13" width="11.46484375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5200,13 +5163,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>36</v>
@@ -5215,10 +5178,10 @@
         <v>37</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5245,12 +5208,12 @@
         <f>I2</f>
         <v>0.5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f t="shared" ref="K2:K65" si="0">D2*(1/(F2*1000/(60*60)))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -5271,10 +5234,10 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">E3*D3/100</f>
@@ -5284,12 +5247,12 @@
         <f>I3+J2</f>
         <v>1.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="2">A3</f>
         <v>Green</v>
@@ -5317,13 +5280,13 @@
         <f t="shared" ref="J4:J67" si="3">I4+J3</f>
         <v>3</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5351,12 +5314,12 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5384,12 +5347,12 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5417,12 +5380,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5451,12 +5414,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5484,12 +5447,12 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5510,10 +5473,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -5523,12 +5486,12 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5542,7 +5505,7 @@
       <c r="D11" s="3">
         <v>100</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="3">
         <v>-4.5</v>
       </c>
       <c r="F11" s="3">
@@ -5556,12 +5519,12 @@
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5589,12 +5552,12 @@
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5615,7 +5578,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="1"/>
@@ -5625,12 +5588,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5658,12 +5621,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5691,12 +5654,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5724,12 +5687,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5753,7 +5716,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
@@ -5763,12 +5726,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5796,12 +5759,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5829,12 +5792,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5855,7 +5818,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
@@ -5865,12 +5828,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5898,12 +5861,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5931,12 +5894,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5957,10 +5920,10 @@
         <v>70</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
@@ -5970,12 +5933,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6003,12 +5966,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6036,12 +5999,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6069,12 +6032,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6102,12 +6065,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6135,12 +6098,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6168,12 +6131,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6194,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="1"/>
@@ -6204,12 +6167,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6237,12 +6200,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6263,10 +6226,10 @@
         <v>30</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
@@ -6276,12 +6239,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6309,12 +6272,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6342,12 +6305,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6375,12 +6338,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6408,12 +6371,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6444,12 +6407,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -6480,12 +6443,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6516,12 +6479,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6542,10 +6505,10 @@
         <v>30</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
@@ -6555,12 +6518,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6591,12 +6554,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6627,12 +6590,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6663,12 +6626,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6699,12 +6662,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6735,12 +6698,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6771,12 +6734,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6807,12 +6770,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6843,12 +6806,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6869,10 +6832,10 @@
         <v>30</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
@@ -6882,12 +6845,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6918,12 +6881,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6954,12 +6917,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -6990,12 +6953,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7026,12 +6989,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7062,12 +7025,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7098,12 +7061,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7134,12 +7097,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7170,12 +7133,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7196,10 +7159,10 @@
         <v>30</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
@@ -7209,12 +7172,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7235,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
@@ -7245,12 +7208,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7278,12 +7241,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7311,12 +7274,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7344,12 +7307,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7370,7 +7333,7 @@
         <v>30</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
@@ -7380,12 +7343,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7413,12 +7376,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7446,12 +7409,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="15">
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7472,10 +7435,10 @@
         <v>70</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
@@ -7485,12 +7448,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="15">
         <f t="shared" ref="K66:K129" si="4">D66*(1/(F66*1000/(60*60)))</f>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7518,12 +7481,12 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="15">
         <f t="shared" si="4"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7551,12 +7514,12 @@
         <f t="shared" ref="J68:J77" si="6">I68+J67</f>
         <v>0.5</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7584,12 +7547,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -7617,12 +7580,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="7">A70</f>
         <v>Green</v>
@@ -7650,12 +7613,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7683,12 +7646,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7716,12 +7679,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7742,10 +7705,10 @@
         <v>40</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
@@ -7755,12 +7718,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7788,12 +7751,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7821,12 +7784,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7847,7 +7810,7 @@
         <v>40</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="5"/>
@@ -7857,12 +7820,12 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7883,10 +7846,10 @@
         <v>70</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="8">E78*D78/100</f>
@@ -7896,12 +7859,12 @@
         <f t="shared" ref="J78:J109" si="9">I78+J77</f>
         <v>0.5</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7929,12 +7892,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7962,12 +7925,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -7995,12 +7958,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8028,12 +7991,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8061,12 +8024,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8094,12 +8057,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8127,12 +8090,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8153,7 +8116,7 @@
         <v>70</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="8"/>
@@ -8163,12 +8126,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="15">
         <f t="shared" si="4"/>
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8196,12 +8159,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="15">
         <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8229,12 +8192,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="15">
         <f t="shared" si="4"/>
         <v>12.470399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8255,10 +8218,10 @@
         <v>25</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="8"/>
@@ -8268,12 +8231,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="15">
         <f t="shared" si="4"/>
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8301,12 +8264,12 @@
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8334,12 +8297,12 @@
         <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8367,12 +8330,12 @@
         <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8400,12 +8363,12 @@
         <f t="shared" si="9"/>
         <v>-2.125</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8433,12 +8396,12 @@
         <f t="shared" si="9"/>
         <v>-0.625</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8466,12 +8429,12 @@
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8499,12 +8462,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8525,10 +8488,10 @@
         <v>25</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="8"/>
@@ -8538,12 +8501,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8571,12 +8534,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8604,12 +8567,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8637,12 +8600,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8670,12 +8633,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="15">
         <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8703,12 +8666,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="15">
         <f t="shared" si="4"/>
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8736,12 +8699,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8769,12 +8732,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8802,12 +8765,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="15">
         <f t="shared" si="4"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8832,7 +8795,7 @@
         <v>STATION; DORMONT</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="8"/>
@@ -8842,12 +8805,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8875,12 +8838,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8908,12 +8871,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="15">
         <f t="shared" si="4"/>
         <v>11.571428571428573</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8941,12 +8904,12 @@
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
@@ -8974,18 +8937,18 @@
         <f t="shared" ref="J110:J151" si="11">I110+J109</f>
         <v>0.5</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="15">
         <f t="shared" si="4"/>
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -9007,18 +8970,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K111" s="16">
+      <c r="K111" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -9040,18 +9003,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K112" s="16">
+      <c r="K112" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -9073,18 +9036,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K113" s="16">
+      <c r="K113" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -9106,18 +9069,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K114" s="16">
+      <c r="K114" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -9134,10 +9097,10 @@
       </c>
       <c r="G115" s="11" t="str">
         <f>G66</f>
-        <v>STATION; GLENBURY</v>
+        <v>STATION; GLENBURY (First)</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="10"/>
@@ -9147,18 +9110,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="15">
         <f t="shared" si="4"/>
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -9180,18 +9143,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -9213,18 +9176,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -9246,18 +9209,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -9279,18 +9242,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K119" s="16">
+      <c r="K119" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -9312,18 +9275,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="15">
         <f t="shared" si="4"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -9345,18 +9308,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -9378,18 +9341,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="15">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -9414,18 +9377,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -9444,7 +9407,7 @@
         <v>STATION; OVERBROOK; UNDERGROUND</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="10"/>
@@ -9454,18 +9417,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K124" s="16">
+      <c r="K124" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -9490,18 +9453,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K125" s="16">
+      <c r="K125" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -9526,18 +9489,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K126" s="16">
+      <c r="K126" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -9562,18 +9525,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K127" s="16">
+      <c r="K127" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -9598,18 +9561,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -9634,18 +9597,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="15">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -9670,18 +9633,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="15">
         <f t="shared" ref="K130:K150" si="12">D130*(1/(F130*1000/(60*60)))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -9706,18 +9669,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -9742,18 +9705,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -9772,7 +9735,7 @@
         <v>STATION; INGLEWOOD; UNDERGROUND</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="10"/>
@@ -9782,18 +9745,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -9818,18 +9781,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A151" si="13">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -9854,18 +9817,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K135" s="16">
+      <c r="K135" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -9890,18 +9853,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K136" s="16">
+      <c r="K136" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -9926,18 +9889,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K137" s="16">
+      <c r="K137" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -9962,18 +9925,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K138" s="16">
+      <c r="K138" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -9998,18 +9961,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K139" s="16">
+      <c r="K139" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -10034,18 +9997,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K140" s="16">
+      <c r="K140" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -10070,18 +10033,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K141" s="16">
+      <c r="K141" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -10097,10 +10060,10 @@
       </c>
       <c r="G142" s="11" t="str">
         <f>G40</f>
-        <v>STATION; CENTRAL; UNDERDROUND</v>
+        <v>STATION; CENTRAL; UNDERGROUND</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="10"/>
@@ -10110,18 +10073,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K142" s="16">
+      <c r="K142" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -10146,18 +10109,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K143" s="16">
+      <c r="K143" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -10182,18 +10145,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K144" s="16">
+      <c r="K144" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -10215,18 +10178,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K145" s="16">
+      <c r="K145" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -10248,18 +10211,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K146" s="16">
+      <c r="K146" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -10281,18 +10244,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -10314,18 +10277,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K148" s="16">
+      <c r="K148" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -10348,18 +10311,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K149" s="16">
+      <c r="K149" s="15">
         <f t="shared" si="12"/>
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -10381,18 +10344,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K150" s="16">
+      <c r="K150" s="15">
         <f t="shared" si="12"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -10414,18 +10377,18 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="K151" s="16">
+      <c r="K151" s="15">
         <f>D151*(1/(F151*1000/(60*60)))</f>
         <v>6.3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K153" s="1">
         <f>MIN(K2:K151)</f>
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K154" s="1">
         <f>K153/1.2</f>
         <v>4.0384615384615392</v>
@@ -10444,48 +10407,48 @@
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="19" spans="11:11" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="11:11" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K20" s="10"/>
     </row>
   </sheetData>
@@ -10506,7 +10469,7 @@
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10519,7 +10482,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/main/TrainControllerSW/track_layout.xlsx
+++ b/src/main/TrainControllerSW/track_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13477\Desktop\Github repos\ECE-1140\src\main\TrainControllerSW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E44E88-C4F3-4E81-BFB0-215AC33B2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F36A500-F01A-4229-92B2-AE7310DADD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,12 +215,6 @@
     <t>SWITCH (12-13; 1-13)</t>
   </si>
   <si>
-    <t>SWITCH TO YARD (57-yard)</t>
-  </si>
-  <si>
-    <t>SWITCH FROM YARD (Yard-63)</t>
-  </si>
-  <si>
     <t>SWITCH (76-77;77-101)</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
   </si>
   <si>
     <t>SWITCH (85-86; 100-85)</t>
-  </si>
-  <si>
-    <t>SWITCH TO/FROM YARD (75-yard)</t>
   </si>
   <si>
     <t>SWITCH (15-16; 1-16)</t>
@@ -312,6 +303,15 @@
   </si>
   <si>
     <t>STATION; CENTRAL; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>SWITCH TO YARD (57-YARD)</t>
+  </si>
+  <si>
+    <t>SWITCH FROM YARD (YARD-63)</t>
+  </si>
+  <si>
+    <t>SWITCH TO/FROM YARD (75-YARD)</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1803,7 +1803,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="12">
@@ -1836,7 +1836,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="12">
@@ -1962,7 +1962,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="12">
@@ -1995,7 +1995,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="12">
@@ -2121,7 +2121,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="12">
@@ -2155,7 +2155,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2166,11 +2166,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2188,7 +2188,7 @@
     <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>36</v>
@@ -2220,8 +2220,10 @@
         <v>37</v>
       </c>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2252,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
@@ -2280,7 +2282,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
@@ -2310,7 +2312,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2339,7 +2341,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2368,7 +2370,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2397,7 +2399,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2418,10 +2420,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="0"/>
@@ -2432,7 +2434,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2461,7 +2463,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2482,7 +2484,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
@@ -2493,7 +2495,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2522,7 +2524,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2551,7 +2553,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2580,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2609,7 +2611,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2638,7 +2640,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -2659,7 +2661,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I16" s="12">
         <f t="shared" si="0"/>
@@ -2691,10 +2693,10 @@
         <v>40</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I17" s="12">
         <f t="shared" si="0"/>
@@ -2846,7 +2848,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="0"/>
@@ -2968,10 +2970,10 @@
         <v>70</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="0"/>
@@ -3035,7 +3037,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
@@ -3195,7 +3197,7 @@
         <v>70</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="0"/>
@@ -3291,10 +3293,10 @@
         <v>70</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I36" s="12">
         <f t="shared" si="0"/>
@@ -3390,7 +3392,7 @@
         <v>70</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="0"/>
@@ -3550,7 +3552,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="0"/>
@@ -3614,10 +3616,10 @@
         <v>70</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="0"/>
@@ -3716,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I49" s="12">
         <f t="shared" si="0"/>
@@ -3835,7 +3837,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I53" s="12">
         <f t="shared" si="0"/>
@@ -4073,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I61" s="12">
         <f t="shared" si="0"/>
@@ -5124,11 +5126,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5146,7 +5148,7 @@
     <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>36</v>
@@ -5178,10 +5180,13 @@
         <v>37</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -5237,7 +5242,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">E3*D3/100</f>
@@ -5252,7 +5257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="2">A3</f>
         <v>Green</v>
@@ -5286,7 +5291,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5319,7 +5324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5352,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5385,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5419,7 +5424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5452,7 +5457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5476,7 +5481,7 @@
         <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -5491,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5524,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5557,7 +5562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5593,7 +5598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5626,7 +5631,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5659,7 +5664,7 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5716,7 +5721,7 @@
         <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
@@ -5923,7 +5928,7 @@
         <v>49</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
@@ -6157,7 +6162,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="1"/>
@@ -6229,7 +6234,7 @@
         <v>50</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
@@ -6505,10 +6510,10 @@
         <v>30</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
@@ -6835,7 +6840,7 @@
         <v>53</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
@@ -7162,7 +7167,7 @@
         <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
@@ -7198,7 +7203,7 @@
         <v>30</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
@@ -7333,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
@@ -7435,10 +7440,10 @@
         <v>70</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
@@ -7708,7 +7713,7 @@
         <v>51</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
@@ -7810,7 +7815,7 @@
         <v>40</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="5"/>
@@ -7846,10 +7851,10 @@
         <v>70</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="8">E78*D78/100</f>
@@ -8116,7 +8121,7 @@
         <v>70</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="8"/>
@@ -8221,7 +8226,7 @@
         <v>52</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="8"/>
@@ -8488,10 +8493,10 @@
         <v>25</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="8"/>
@@ -8795,7 +8800,7 @@
         <v>STATION; DORMONT</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="8"/>
@@ -9100,7 +9105,7 @@
         <v>STATION; GLENBURY (First)</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="10"/>
@@ -9407,7 +9412,7 @@
         <v>STATION; OVERBROOK; UNDERGROUND</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="10"/>
@@ -9735,7 +9740,7 @@
         <v>STATION; INGLEWOOD; UNDERGROUND</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="10"/>
@@ -10063,7 +10068,7 @@
         <v>STATION; CENTRAL; UNDERGROUND</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="10"/>
